--- a/biology/Zoologie/Gonionotophis_capensis/Gonionotophis_capensis.xlsx
+++ b/biology/Zoologie/Gonionotophis_capensis/Gonionotophis_capensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gonionotophis capensis est une espèce de serpents de la famille des Lamprophiidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gonionotophis capensis est une espèce de serpents de la famille des Lamprophiidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans le nord-est de l'Afrique du Sud ;
 au Swaziland ;
 dans le sud du Mozambique ;
@@ -563,7 +577,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de cap[e] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, la colonie du Cap.
 </t>
@@ -594,7 +610,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Smith, 1847 : Illustrations of the Zoology of South Africa; Consisting Chiefly of Figures and Descriptions of the Objects of Natural History Collected during an Expedition into the Interior of South Africa, in the Years 1834, 1835, and 1836... vol. III, Reptilia, Part 26, London, Smith, Elder, &amp; Co..</t>
         </is>
